--- a/stratified.xlsx
+++ b/stratified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Dropbox\teach\0sta304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\Dropbox\teach\0sta304\lectures\2016-03-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,20 +715,20 @@
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <f>B2*SQRT(B4)/SQRT(B3)</f>
-        <v>56</v>
+        <f>B5*SQRT(B4)/SQRT(B3)</f>
+        <v>0.25570776255707761</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:D6" si="1">C2*SQRT(C4)/SQRT(C3)</f>
-        <v>24.48</v>
+        <f t="shared" ref="C6:D6" si="1">C5*SQRT(C4)/SQRT(C3)</f>
+        <v>0.11178082191780822</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>11.700000000000001</v>
+        <v>5.3424657534246578E-2</v>
       </c>
       <c r="E6" s="3">
         <f>SUM(B6:D6)</f>
-        <v>92.18</v>
+        <v>0.42091324200913244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +837,6 @@
         <v>39</v>
       </c>
       <c r="E2" s="3">
-        <f>SUM(B2:D2)</f>
         <v>219</v>
       </c>
     </row>
@@ -876,15 +875,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <f>B2/$E$2</f>
         <v>0.51141552511415522</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:D5" si="0">C2/$E$2</f>
         <v>0.31050228310502281</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="E5" s="3"/>
@@ -894,20 +890,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <f>B2*SQRT(B4)/SQRT(B3)</f>
-        <v>56</v>
+        <v>0.25570776255707761</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:D6" si="1">C2*SQRT(C4)/SQRT(C3)</f>
-        <v>24.48</v>
+        <v>0.11178082191780822</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>11.700000000000001</v>
+        <v>5.3424657534246578E-2</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(B6:D6)</f>
-        <v>92.18</v>
+        <v>0.42091324200913244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,15 +907,12 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <f>B6/$E$6</f>
         <v>0.60750705142113248</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:D7" si="2">C6/$E$6</f>
         <v>0.26556736819266652</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
         <v>0.12692558038620091</v>
       </c>
       <c r="E7" s="3"/>
@@ -933,19 +922,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="4">
-        <f>B5^2*B4/B7</f>
         <v>0.96867705010320893</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:D8" si="3">C5^2*C4/C7</f>
         <v>1.1762507036967536</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="3"/>
         <v>0.80953724901482449</v>
       </c>
       <c r="E8" s="6">
-        <f>SUM(B8:D8)</f>
         <v>2.954465002814787</v>
       </c>
     </row>
@@ -954,19 +939,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="4">
-        <f>B5*B4</f>
         <v>1.1506849315068493</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:D9" si="4">C5*C4</f>
         <v>1.006027397260274</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="4"/>
         <v>0.57698630136986306</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(B9:D9)</f>
         <v>2.7336986301369866</v>
       </c>
     </row>
@@ -975,7 +956,6 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f>E8/(0.1 + 1/E2*E9)</f>
         <v>26.265963764972806</v>
       </c>
     </row>
